--- a/biology/Botanique/Nematocida_parisii/Nematocida_parisii.xlsx
+++ b/biology/Botanique/Nematocida_parisii/Nematocida_parisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nematocida parisii est une espèce de microsporidies. C'est un champignon pathogène des nématodes, et notamment de l'animal modèle Caenorhabditis elegans.
 Le nom latin de l'espèce peut se traduire par le tueur de nématodes de Paris.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
